--- a/data/trans_orig/IP21B-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP21B-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CEA65116-A58D-46CD-B9E3-9EEF7B52E9BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{14453D18-B3A2-477F-A50D-F654643068DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{FFFF8F06-C564-4D27-96D0-32B33272F0A1}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{26A97B06-C94E-4096-8BFF-8A0567C04D4D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -131,6 +131,63 @@
     <t>13,61%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>44,62%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>60,08%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>67,83%</t>
+  </si>
+  <si>
+    <t>44,97%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>55,38%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>55,03%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
@@ -164,63 +221,6 @@
     <t>38,35%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>44,62%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>60,08%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>67,83%</t>
-  </si>
-  <si>
-    <t>44,97%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>55,38%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>55,03%</t>
-  </si>
-  <si>
     <t>87,73%</t>
   </si>
   <si>
@@ -326,6 +326,60 @@
     <t>23,22%</t>
   </si>
   <si>
+    <t>64,28%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>72,06%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>67,71%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>65,17%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>63,76%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>52,15%</t>
+  </si>
+  <si>
     <t>84,74%</t>
   </si>
   <si>
@@ -356,60 +410,6 @@
     <t>36,36%</t>
   </si>
   <si>
-    <t>64,28%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>72,06%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>67,71%</t>
-  </si>
-  <si>
-    <t>47,85%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>65,17%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>63,76%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>52,15%</t>
-  </si>
-  <si>
     <t>81,97%</t>
   </si>
   <si>
@@ -515,6 +515,42 @@
     <t>35,45%</t>
   </si>
   <si>
+    <t>62,09%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>81,03%</t>
+  </si>
+  <si>
+    <t>53,1%</t>
+  </si>
+  <si>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>78,42%</t>
+  </si>
+  <si>
     <t>76,52%</t>
   </si>
   <si>
@@ -563,42 +599,6 @@
     <t>42,52%</t>
   </si>
   <si>
-    <t>62,09%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>55,21%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>53,1%</t>
-  </si>
-  <si>
-    <t>44,79%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
-  </si>
-  <si>
     <t>78,77%</t>
   </si>
   <si>
@@ -680,6 +680,30 @@
     <t>42,74%</t>
   </si>
   <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>65,58%</t>
+  </si>
+  <si>
+    <t>77,63%</t>
+  </si>
+  <si>
+    <t>44,49%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>55,51%</t>
+  </si>
+  <si>
     <t>54,72%</t>
   </si>
   <si>
@@ -720,30 +744,6 @@
   </si>
   <si>
     <t>73,51%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>65,58%</t>
-  </si>
-  <si>
-    <t>77,63%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>55,51%</t>
   </si>
   <si>
     <t>74,09%</t>
@@ -1189,7 +1189,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EE7933C-CCA8-45BF-969A-AA6409FAAA86}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1264223-825F-4FCF-88BE-4976D61FBF47}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1462,49 +1462,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7" s="7">
-        <v>4828</v>
+        <v>5330</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="H7" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I7" s="7">
-        <v>1886</v>
+        <v>2732</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N7" s="7">
-        <v>6714</v>
+        <v>8063</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1513,49 +1513,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>2009</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I8" s="7">
-        <v>654</v>
+        <v>1816</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="M8" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N8" s="7">
-        <v>654</v>
+        <v>3824</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1564,25 +1564,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>11</v>
+      </c>
+      <c r="D9" s="7">
+        <v>7339</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="7">
         <v>7</v>
       </c>
-      <c r="D9" s="7">
-        <v>4828</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="7">
-        <v>4</v>
-      </c>
       <c r="I9" s="7">
-        <v>2540</v>
+        <v>4548</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>16</v>
@@ -1594,10 +1594,10 @@
         <v>16</v>
       </c>
       <c r="M9" s="7">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="N9" s="7">
-        <v>7368</v>
+        <v>11887</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>16</v>
@@ -1611,55 +1611,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10" s="7">
-        <v>5330</v>
+        <v>4828</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="H10" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I10" s="7">
-        <v>2732</v>
+        <v>1886</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="M10" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N10" s="7">
-        <v>8063</v>
+        <v>6714</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1668,46 +1668,46 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D11" s="7">
-        <v>2009</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H11" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I11" s="7">
-        <v>1816</v>
+        <v>654</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M11" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N11" s="7">
-        <v>3824</v>
+        <v>654</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>59</v>
@@ -1719,40 +1719,40 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>7</v>
+      </c>
+      <c r="D12" s="7">
+        <v>4828</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="7">
+        <v>4</v>
+      </c>
+      <c r="I12" s="7">
+        <v>2540</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M12" s="7">
         <v>11</v>
       </c>
-      <c r="D12" s="7">
-        <v>7339</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="7">
-        <v>7</v>
-      </c>
-      <c r="I12" s="7">
-        <v>4548</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M12" s="7">
-        <v>18</v>
-      </c>
       <c r="N12" s="7">
-        <v>11887</v>
+        <v>7368</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>16</v>
@@ -1935,7 +1935,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90F6B031-DF3C-460D-8B5D-82E6FFC998C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34E587D2-F935-4AF5-90AD-55565F857BDE}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2208,10 +2208,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" s="7">
-        <v>6692</v>
+        <v>5990</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>95</v>
@@ -2220,37 +2220,37 @@
         <v>96</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="H7" s="7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I7" s="7">
-        <v>2679</v>
+        <v>5289</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="M7" s="7">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N7" s="7">
-        <v>9371</v>
+        <v>11279</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2259,49 +2259,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" s="7">
-        <v>1205</v>
+        <v>3329</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>24</v>
+        <v>105</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>2050</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>24</v>
+        <v>107</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>25</v>
+        <v>108</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="M8" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="N8" s="7">
-        <v>1205</v>
+        <v>5379</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>24</v>
+        <v>111</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2310,25 +2310,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>13</v>
+      </c>
+      <c r="D9" s="7">
+        <v>9319</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="7">
         <v>11</v>
       </c>
-      <c r="D9" s="7">
-        <v>7897</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="7">
-        <v>4</v>
-      </c>
       <c r="I9" s="7">
-        <v>2679</v>
+        <v>7339</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>16</v>
@@ -2340,10 +2340,10 @@
         <v>16</v>
       </c>
       <c r="M9" s="7">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N9" s="7">
-        <v>10576</v>
+        <v>16658</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>16</v>
@@ -2357,55 +2357,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" s="7">
-        <v>5990</v>
+        <v>6692</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="H10" s="7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I10" s="7">
-        <v>5289</v>
+        <v>2679</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="M10" s="7">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N10" s="7">
-        <v>11279</v>
+        <v>9371</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2414,46 +2414,46 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" s="7">
-        <v>3329</v>
+        <v>1205</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>115</v>
+        <v>24</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="H11" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>2050</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>117</v>
+        <v>24</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>118</v>
+        <v>25</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M11" s="7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N11" s="7">
-        <v>5379</v>
+        <v>1205</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>121</v>
+        <v>24</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>122</v>
@@ -2465,10 +2465,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D12" s="7">
-        <v>9319</v>
+        <v>7897</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>16</v>
@@ -2480,10 +2480,10 @@
         <v>16</v>
       </c>
       <c r="H12" s="7">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="I12" s="7">
-        <v>7339</v>
+        <v>2679</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>16</v>
@@ -2495,10 +2495,10 @@
         <v>16</v>
       </c>
       <c r="M12" s="7">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N12" s="7">
-        <v>16658</v>
+        <v>10576</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>16</v>
@@ -2681,7 +2681,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F5A3E3A-2BD2-4502-9A77-F60A9155E054}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E0100CC-7545-4E0F-A189-8740A79D867F}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2954,10 +2954,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>7847</v>
+        <v>1996</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>158</v>
@@ -2966,37 +2966,37 @@
         <v>159</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="7">
+        <v>2</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1246</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="H7" s="7">
-        <v>8</v>
-      </c>
-      <c r="I7" s="7">
-        <v>5358</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>161</v>
-      </c>
       <c r="K7" s="7" t="s">
-        <v>162</v>
+        <v>24</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="M7" s="7">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="N7" s="7">
-        <v>13206</v>
+        <v>3242</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3005,49 +3005,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" s="7">
-        <v>2408</v>
+        <v>1218</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H8" s="7">
+        <v>2</v>
+      </c>
+      <c r="I8" s="7">
+        <v>1411</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="H8" s="7">
-        <v>1</v>
-      </c>
-      <c r="I8" s="7">
-        <v>792</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>170</v>
+        <v>14</v>
       </c>
       <c r="M8" s="7">
         <v>4</v>
       </c>
       <c r="N8" s="7">
-        <v>3199</v>
+        <v>2629</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3056,10 +3056,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D9" s="7">
-        <v>10255</v>
+        <v>3214</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>16</v>
@@ -3071,25 +3071,25 @@
         <v>16</v>
       </c>
       <c r="H9" s="7">
+        <v>4</v>
+      </c>
+      <c r="I9" s="7">
+        <v>2657</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M9" s="7">
         <v>9</v>
       </c>
-      <c r="I9" s="7">
-        <v>6150</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M9" s="7">
-        <v>22</v>
-      </c>
       <c r="N9" s="7">
-        <v>16405</v>
+        <v>5871</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>16</v>
@@ -3103,55 +3103,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D10" s="7">
-        <v>1996</v>
+        <v>7847</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="H10" s="7">
+        <v>8</v>
+      </c>
+      <c r="I10" s="7">
+        <v>5358</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="7">
-        <v>2</v>
-      </c>
-      <c r="I10" s="7">
-        <v>1246</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="M10" s="7">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="N10" s="7">
-        <v>3242</v>
+        <v>13206</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3160,40 +3160,40 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" s="7">
-        <v>1218</v>
+        <v>2408</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>1</v>
+      </c>
+      <c r="I11" s="7">
+        <v>792</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="H11" s="7">
-        <v>2</v>
-      </c>
-      <c r="I11" s="7">
-        <v>1411</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>14</v>
+        <v>182</v>
       </c>
       <c r="M11" s="7">
         <v>4</v>
       </c>
       <c r="N11" s="7">
-        <v>2629</v>
+        <v>3199</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>183</v>
@@ -3211,10 +3211,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D12" s="7">
-        <v>3214</v>
+        <v>10255</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>16</v>
@@ -3226,10 +3226,10 @@
         <v>16</v>
       </c>
       <c r="H12" s="7">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I12" s="7">
-        <v>2657</v>
+        <v>6150</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>16</v>
@@ -3241,10 +3241,10 @@
         <v>16</v>
       </c>
       <c r="M12" s="7">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="N12" s="7">
-        <v>5871</v>
+        <v>16405</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>16</v>
@@ -3427,7 +3427,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5120654-3F50-4E34-9E79-54000912DB97}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{986BC366-AD55-4CC1-853A-F39A69CA6AE2}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3569,7 +3569,7 @@
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>16</v>
@@ -3623,7 +3623,7 @@
         <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -3700,49 +3700,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" s="7">
-        <v>2965</v>
+        <v>2652</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="7">
+        <v>5</v>
+      </c>
+      <c r="I7" s="7">
+        <v>3229</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="7">
-        <v>3</v>
-      </c>
-      <c r="I7" s="7">
-        <v>1923</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>215</v>
-      </c>
       <c r="K7" s="7" t="s">
-        <v>216</v>
+        <v>183</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="M7" s="7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N7" s="7">
-        <v>4889</v>
+        <v>5881</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>219</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3751,49 +3751,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>2454</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>220</v>
+        <v>24</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" s="7">
-        <v>604</v>
+        <v>1695</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>223</v>
+        <v>175</v>
       </c>
       <c r="M8" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N8" s="7">
-        <v>3058</v>
+        <v>1695</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>225</v>
+        <v>24</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3802,10 +3802,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" s="7">
-        <v>5419</v>
+        <v>2652</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>16</v>
@@ -3817,10 +3817,10 @@
         <v>16</v>
       </c>
       <c r="H9" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I9" s="7">
-        <v>2527</v>
+        <v>4924</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>16</v>
@@ -3832,10 +3832,10 @@
         <v>16</v>
       </c>
       <c r="M9" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N9" s="7">
-        <v>7947</v>
+        <v>7576</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>16</v>
@@ -3849,55 +3849,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>2652</v>
+        <v>2965</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>16</v>
-      </c>
       <c r="H10" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I10" s="7">
-        <v>3229</v>
+        <v>1923</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="M10" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N10" s="7">
-        <v>5881</v>
+        <v>4889</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>14</v>
+        <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3906,46 +3906,46 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>2454</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>25</v>
-      </c>
       <c r="G11" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H11" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" s="7">
-        <v>1695</v>
+        <v>604</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>163</v>
+        <v>231</v>
       </c>
       <c r="M11" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N11" s="7">
-        <v>1695</v>
+        <v>3058</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>234</v>
@@ -3957,10 +3957,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D12" s="7">
-        <v>2652</v>
+        <v>5419</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>16</v>
@@ -3972,10 +3972,10 @@
         <v>16</v>
       </c>
       <c r="H12" s="7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I12" s="7">
-        <v>4924</v>
+        <v>2527</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>16</v>
@@ -3987,10 +3987,10 @@
         <v>16</v>
       </c>
       <c r="M12" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N12" s="7">
-        <v>7576</v>
+        <v>7947</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>16</v>

--- a/data/trans_orig/IP21B-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP21B-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14453D18-B3A2-477F-A50D-F654643068DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{697C27BA-93A3-4981-960F-0FF8E0697113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{26A97B06-C94E-4096-8BFF-8A0567C04D4D}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D0A7953C-86E5-4E41-9D9C-9DD32B0B07D3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="249">
   <si>
     <t>Menores según si estuvo en lista de espera en 2007 (Tasa respuesta: 4,23%)</t>
   </si>
@@ -68,736 +68,724 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>73,66%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>93,64%</t>
+    <t>93,43%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>72,63%</t>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>57,6%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>69,1%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>54,56%</t>
+  </si>
+  <si>
+    <t>70,95%</t>
+  </si>
+  <si>
+    <t>42,4%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>67,02%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>69,79%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>56,97%</t>
+  </si>
+  <si>
+    <t>60,26%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>72,75%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>75,34%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>78,53%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si estuvo en lista de espera en 2012 (Tasa respuesta: 4,14%)</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>60,61%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>54,12%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>50,88%</t>
+  </si>
+  <si>
+    <t>63,21%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>72,87%</t>
+  </si>
+  <si>
+    <t>45,88%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>67,7%</t>
+  </si>
+  <si>
+    <t>49,12%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>61,01%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>55,4%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>70,84%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>74,36%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>Menores según si estuvo en lista de espera en 2015 (Tasa respuesta: 2,92%)</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>46,64%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>75,6%</t>
   </si>
   <si>
     <t>44,62%</t>
   </si>
   <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>60,08%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>67,83%</t>
-  </si>
-  <si>
-    <t>44,97%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>74,16%</t>
+  </si>
+  <si>
+    <t>59,73%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>53,36%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
   </si>
   <si>
     <t>55,38%</t>
   </si>
   <si>
-    <t>39,92%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>55,03%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>74,27%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>61,65%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>76,63%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>77,07%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>80,93%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>Menores según si estuvo en lista de espera en 2012 (Tasa respuesta: 4,14%)</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>73,42%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>70,04%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>76,78%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>64,28%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>72,06%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>67,71%</t>
-  </si>
-  <si>
-    <t>47,85%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>65,17%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>63,76%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>52,15%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>55,6%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>63,64%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>68,79%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>69,93%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>74,74%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>Menores según si estuvo en lista de espera en 2015 (Tasa respuesta: 2,92%)</t>
-  </si>
-  <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>57,41%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>64,55%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>42,59%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>62,09%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>55,21%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>53,1%</t>
-  </si>
-  <si>
-    <t>44,79%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
-  </si>
-  <si>
-    <t>76,52%</t>
-  </si>
-  <si>
-    <t>47,31%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>49,97%</t>
-  </si>
-  <si>
-    <t>80,5%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>52,69%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>50,03%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>41,43%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>75,81%</t>
+  </si>
+  <si>
+    <t>36,81%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>66,74%</t>
+  </si>
+  <si>
+    <t>58,57%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>63,19%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>60,58%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>53,42%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>46,58%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>63,49%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
   </si>
   <si>
     <t>78,77%</t>
   </si>
   <si>
-    <t>59,13%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
+    <t>60,69%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
   </si>
   <si>
     <t>77,49%</t>
   </si>
   <si>
-    <t>60,06%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
+    <t>60,3%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
   </si>
   <si>
     <t>78,12%</t>
   </si>
   <si>
-    <t>66,35%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>40,87%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>39,94%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
+    <t>65,9%</t>
+  </si>
+  <si>
+    <t>86,91%</t>
   </si>
   <si>
     <t>Menores según si estuvo en lista de espera en 2023 (Tasa respuesta: 1,72%)</t>
   </si>
   <si>
-    <t>83,9%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>57,26%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>62,03%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>65,58%</t>
-  </si>
-  <si>
-    <t>77,63%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>54,72%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>76,08%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>61,51%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>45,28%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>75,25%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>73,51%</t>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>73,86%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>58,3%</t>
+  </si>
+  <si>
+    <t>80,58%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>63,17%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>70,13%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>70,11%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>69,66%</t>
+  </si>
+  <si>
+    <t>68,68%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>45,6%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>54,4%</t>
+  </si>
+  <si>
+    <t>66,17%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>52,11%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>54,57%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>43,76%</t>
   </si>
   <si>
     <t>74,09%</t>
   </si>
   <si>
-    <t>45,91%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
+    <t>47,89%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
   </si>
   <si>
     <t>74,96%</t>
   </si>
   <si>
-    <t>47,24%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
   </si>
   <si>
     <t>74,47%</t>
   </si>
   <si>
-    <t>56,3%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>54,09%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>52,76%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>43,7%</t>
+    <t>56,24%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
   </si>
 </sst>
 </file>
@@ -808,7 +796,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -904,39 +892,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -988,7 +976,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1099,13 +1087,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1114,6 +1095,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1178,19 +1166,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1264223-825F-4FCF-88BE-4976D61FBF47}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{007D3AAD-1EB0-4D58-BE72-3893B7C16F6C}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1307,10 +1315,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>18926</v>
+        <v>719</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1322,85 +1330,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>18323</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>1</v>
+      </c>
+      <c r="N4" s="7">
+        <v>719</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="7">
-        <v>57</v>
-      </c>
-      <c r="N4" s="7">
-        <v>37249</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7">
+        <v>23</v>
+      </c>
+      <c r="D5" s="7">
+        <v>15650</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>3</v>
-      </c>
-      <c r="D5" s="7">
-        <v>2060</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>28</v>
+      </c>
+      <c r="I5" s="7">
+        <v>17658</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="L5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="7">
+        <v>51</v>
+      </c>
+      <c r="N5" s="7">
+        <v>33307</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="7">
-        <v>3</v>
-      </c>
-      <c r="N5" s="7">
-        <v>2060</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1409,153 +1417,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D6" s="7">
-        <v>20986</v>
+        <v>16369</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H6" s="7">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I6" s="7">
-        <v>18323</v>
+        <v>17658</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="N6" s="7">
-        <v>39309</v>
+        <v>34026</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D7" s="7">
-        <v>5330</v>
+        <v>2714</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="7">
+        <v>2</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1289</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>6</v>
+      </c>
+      <c r="N7" s="7">
+        <v>4003</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="7">
-        <v>4</v>
-      </c>
-      <c r="I7" s="7">
-        <v>2732</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M7" s="7">
-        <v>12</v>
-      </c>
-      <c r="N7" s="7">
-        <v>8063</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D8" s="7">
-        <v>2009</v>
+        <v>6628</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="7">
+        <v>4</v>
+      </c>
+      <c r="I8" s="7">
+        <v>2619</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" s="7">
+        <v>14</v>
+      </c>
+      <c r="N8" s="7">
+        <v>9247</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="H8" s="7">
-        <v>3</v>
-      </c>
-      <c r="I8" s="7">
-        <v>1816</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="M8" s="7">
-        <v>6</v>
-      </c>
-      <c r="N8" s="7">
-        <v>3824</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1564,153 +1572,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D9" s="7">
-        <v>7339</v>
+        <v>9342</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H9" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I9" s="7">
-        <v>4548</v>
+        <v>3908</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N9" s="7">
-        <v>11887</v>
+        <v>13250</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>4828</v>
+        <v>636</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="H10" s="7">
+        <v>2</v>
+      </c>
+      <c r="I10" s="7">
+        <v>1181</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" s="7">
         <v>3</v>
       </c>
-      <c r="I10" s="7">
-        <v>1886</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M10" s="7">
-        <v>10</v>
-      </c>
       <c r="N10" s="7">
-        <v>6714</v>
+        <v>1816</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>4071</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
       </c>
       <c r="I11" s="7">
-        <v>654</v>
+        <v>778</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N11" s="7">
-        <v>654</v>
+        <v>4850</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1722,150 +1730,150 @@
         <v>7</v>
       </c>
       <c r="D12" s="7">
-        <v>4828</v>
+        <v>4707</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H12" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I12" s="7">
-        <v>2540</v>
+        <v>1959</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N12" s="7">
-        <v>7368</v>
+        <v>6666</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>29085</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H13" s="7">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>22942</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="M13" s="7">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="N13" s="7">
-        <v>52027</v>
+        <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D14" s="7">
-        <v>4069</v>
+        <v>2736</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="H14" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I14" s="7">
-        <v>2469</v>
+        <v>1887</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="M14" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N14" s="7">
-        <v>6538</v>
+        <v>4622</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1874,55 +1882,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>4</v>
+      </c>
+      <c r="D15" s="7">
+        <v>2736</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="7">
+        <v>3</v>
+      </c>
+      <c r="I15" s="7">
+        <v>1887</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15" s="7">
+        <v>7</v>
+      </c>
+      <c r="N15" s="7">
+        <v>4622</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>6</v>
+      </c>
+      <c r="D16" s="7">
+        <v>4069</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H16" s="7">
+        <v>4</v>
+      </c>
+      <c r="I16" s="7">
+        <v>2469</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="M16" s="7">
+        <v>10</v>
+      </c>
+      <c r="N16" s="7">
+        <v>6538</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="7">
+        <v>43</v>
+      </c>
+      <c r="D17" s="7">
+        <v>29085</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H17" s="7">
+        <v>36</v>
+      </c>
+      <c r="I17" s="7">
+        <v>22942</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="M17" s="7">
+        <v>79</v>
+      </c>
+      <c r="N17" s="7">
+        <v>52027</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>49</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>33154</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="7">
         <v>40</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>25411</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M18" s="7">
         <v>89</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>58565</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>16</v>
+      <c r="O18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1935,8 +2104,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34E587D2-F935-4AF5-90AD-55565F857BDE}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60B262C8-CDA6-4169-BD55-66A94A2DFB8B}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1952,7 +2121,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2053,100 +2222,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>13941</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H4" s="7">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>15706</v>
+        <v>1379</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>83</v>
       </c>
       <c r="M4" s="7">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>29646</v>
+        <v>1379</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>84</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D5" s="7">
-        <v>1321</v>
+        <v>10614</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="7">
+        <v>19</v>
+      </c>
+      <c r="I5" s="7">
+        <v>13008</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="H5" s="7">
-        <v>3</v>
-      </c>
-      <c r="I5" s="7">
-        <v>2302</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="L5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="7">
+        <v>34</v>
+      </c>
+      <c r="N5" s="7">
+        <v>23622</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="M5" s="7">
-        <v>5</v>
-      </c>
-      <c r="N5" s="7">
-        <v>3623</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>93</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>94</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2155,153 +2324,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D6" s="7">
-        <v>15262</v>
+        <v>10614</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H6" s="7">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I6" s="7">
-        <v>18008</v>
+        <v>14387</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="N6" s="7">
-        <v>33269</v>
+        <v>25001</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" s="7">
-        <v>5990</v>
+        <v>4650</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H7" s="7">
+        <v>4</v>
+      </c>
+      <c r="I7" s="7">
+        <v>2974</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>11</v>
+      </c>
+      <c r="N7" s="7">
+        <v>7623</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="H7" s="7">
-        <v>8</v>
-      </c>
-      <c r="I7" s="7">
-        <v>5289</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="M7" s="7">
-        <v>16</v>
-      </c>
-      <c r="N7" s="7">
-        <v>11279</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D8" s="7">
-        <v>3329</v>
+        <v>7989</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H8" s="7">
+        <v>12</v>
+      </c>
+      <c r="I8" s="7">
+        <v>7986</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>23</v>
+      </c>
+      <c r="N8" s="7">
+        <v>15976</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="H8" s="7">
-        <v>3</v>
-      </c>
-      <c r="I8" s="7">
-        <v>2050</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="M8" s="7">
-        <v>8</v>
-      </c>
-      <c r="N8" s="7">
-        <v>5379</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2310,153 +2479,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D9" s="7">
-        <v>9319</v>
+        <v>12639</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="7">
         <v>16</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="7">
-        <v>11</v>
-      </c>
       <c r="I9" s="7">
-        <v>7339</v>
+        <v>10960</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="N9" s="7">
-        <v>16658</v>
+        <v>23599</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>6692</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>114</v>
+        <v>14</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="7">
-        <v>4</v>
-      </c>
-      <c r="I10" s="7">
-        <v>2679</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="L10" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M10" s="7">
-        <v>13</v>
-      </c>
-      <c r="N10" s="7">
-        <v>9371</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>117</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
+        <v>5</v>
+      </c>
+      <c r="D11" s="7">
+        <v>3887</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="7">
         <v>2</v>
       </c>
-      <c r="D11" s="7">
-        <v>1205</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>1343</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>120</v>
+        <v>23</v>
       </c>
       <c r="M11" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N11" s="7">
-        <v>1205</v>
+        <v>5231</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>121</v>
+        <v>21</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2465,153 +2634,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D12" s="7">
-        <v>7897</v>
+        <v>3887</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H12" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I12" s="7">
-        <v>2679</v>
+        <v>1343</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N12" s="7">
-        <v>10576</v>
+        <v>5231</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>26623</v>
+        <v>1205</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="H13" s="7">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>23673</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="M13" s="7">
-        <v>72</v>
+        <v>2</v>
       </c>
       <c r="N13" s="7">
-        <v>50296</v>
+        <v>1205</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>130</v>
+        <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D14" s="7">
-        <v>5854</v>
+        <v>4132</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>134</v>
+        <v>21</v>
       </c>
       <c r="H14" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I14" s="7">
-        <v>4353</v>
+        <v>1336</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>135</v>
+        <v>21</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>137</v>
+        <v>23</v>
       </c>
       <c r="M14" s="7">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="N14" s="7">
-        <v>10207</v>
+        <v>5467</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>140</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2620,55 +2789,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>8</v>
+      </c>
+      <c r="D15" s="7">
+        <v>5337</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="7">
+        <v>2</v>
+      </c>
+      <c r="I15" s="7">
+        <v>1336</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15" s="7">
+        <v>10</v>
+      </c>
+      <c r="N15" s="7">
+        <v>6672</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>9</v>
+      </c>
+      <c r="D16" s="7">
+        <v>5854</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H16" s="7">
+        <v>6</v>
+      </c>
+      <c r="I16" s="7">
+        <v>4353</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="M16" s="7">
+        <v>15</v>
+      </c>
+      <c r="N16" s="7">
+        <v>10207</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="7">
+        <v>37</v>
+      </c>
+      <c r="D17" s="7">
+        <v>26623</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H17" s="7">
+        <v>35</v>
+      </c>
+      <c r="I17" s="7">
+        <v>23673</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="M17" s="7">
+        <v>72</v>
+      </c>
+      <c r="N17" s="7">
+        <v>50296</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>46</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>32477</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="7">
         <v>41</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>28026</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M18" s="7">
         <v>87</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>60503</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>16</v>
+      <c r="O18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2681,8 +3011,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E0100CC-7545-4E0F-A189-8740A79D867F}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6688211-1715-4931-821E-A96F11650385}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2698,7 +3028,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2799,100 +3129,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>6460</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>142</v>
+        <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>143</v>
+        <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="7">
-        <v>16</v>
-      </c>
-      <c r="I4" s="7">
-        <v>9847</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>145</v>
-      </c>
       <c r="L4" s="7" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="M4" s="7">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>16307</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>147</v>
+        <v>12</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>148</v>
+        <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7">
+        <v>9</v>
+      </c>
+      <c r="D5" s="7">
+        <v>5803</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="7">
+        <v>11</v>
+      </c>
+      <c r="I5" s="7">
+        <v>6777</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="7">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>1</v>
-      </c>
-      <c r="D5" s="7">
-        <v>768</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="H5" s="7">
-        <v>4</v>
-      </c>
-      <c r="I5" s="7">
-        <v>2575</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="M5" s="7">
-        <v>5</v>
-      </c>
       <c r="N5" s="7">
-        <v>3342</v>
+        <v>12580</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>155</v>
+        <v>21</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>157</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2901,153 +3231,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>9</v>
+      </c>
+      <c r="D6" s="7">
+        <v>5803</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="7">
         <v>11</v>
       </c>
-      <c r="D6" s="7">
-        <v>7228</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="7">
+      <c r="I6" s="7">
+        <v>6777</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" s="7">
         <v>20</v>
       </c>
-      <c r="I6" s="7">
-        <v>12422</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M6" s="7">
-        <v>31</v>
-      </c>
       <c r="N6" s="7">
-        <v>19649</v>
+        <v>12580</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>1996</v>
+        <v>1316</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>159</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>14</v>
+        <v>145</v>
       </c>
       <c r="H7" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I7" s="7">
-        <v>1246</v>
+        <v>3280</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>24</v>
+        <v>147</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>14</v>
+        <v>148</v>
       </c>
       <c r="M7" s="7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N7" s="7">
-        <v>3242</v>
+        <v>4596</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" s="7">
-        <v>1218</v>
+        <v>1953</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>24</v>
+        <v>153</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>165</v>
+        <v>21</v>
       </c>
       <c r="H8" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I8" s="7">
-        <v>1411</v>
+        <v>3752</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>24</v>
+        <v>155</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>14</v>
+        <v>156</v>
       </c>
       <c r="M8" s="7">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="N8" s="7">
-        <v>2629</v>
+        <v>5705</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3059,150 +3389,150 @@
         <v>5</v>
       </c>
       <c r="D9" s="7">
-        <v>3214</v>
+        <v>3269</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="7">
+        <v>11</v>
+      </c>
+      <c r="I9" s="7">
+        <v>7032</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" s="7">
         <v>16</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="7">
-        <v>4</v>
-      </c>
-      <c r="I9" s="7">
-        <v>2657</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M9" s="7">
-        <v>9</v>
-      </c>
       <c r="N9" s="7">
-        <v>5871</v>
+        <v>10301</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>7847</v>
+        <v>2186</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="H10" s="7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>5358</v>
+        <v>1497</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>174</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>14</v>
+        <v>164</v>
       </c>
       <c r="M10" s="7">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="N10" s="7">
-        <v>13206</v>
+        <v>3684</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" s="7">
-        <v>2408</v>
+        <v>3090</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I11" s="7">
-        <v>792</v>
+        <v>2570</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>24</v>
+        <v>172</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>182</v>
+        <v>21</v>
       </c>
       <c r="M11" s="7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N11" s="7">
-        <v>3199</v>
+        <v>5660</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3211,153 +3541,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>7</v>
+      </c>
+      <c r="D12" s="7">
+        <v>5276</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="7">
+        <v>6</v>
+      </c>
+      <c r="I12" s="7">
+        <v>4067</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" s="7">
         <v>13</v>
       </c>
-      <c r="D12" s="7">
-        <v>10255</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="7">
-        <v>9</v>
-      </c>
-      <c r="I12" s="7">
-        <v>6150</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M12" s="7">
-        <v>22</v>
-      </c>
       <c r="N12" s="7">
-        <v>16405</v>
+        <v>9344</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>16303</v>
+        <v>891</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>187</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H13" s="7">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>16451</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>189</v>
+        <v>12</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>190</v>
+        <v>14</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>191</v>
+        <v>109</v>
       </c>
       <c r="M13" s="7">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>32754</v>
+        <v>891</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>193</v>
+        <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D14" s="7">
-        <v>4394</v>
+        <v>5458</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>197</v>
+        <v>21</v>
       </c>
       <c r="H14" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I14" s="7">
-        <v>4777</v>
+        <v>3352</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>198</v>
+        <v>21</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>199</v>
+        <v>111</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>200</v>
+        <v>23</v>
       </c>
       <c r="M14" s="7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N14" s="7">
-        <v>9171</v>
+        <v>8809</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>203</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3366,55 +3696,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>8</v>
+      </c>
+      <c r="D15" s="7">
+        <v>6349</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="7">
+        <v>5</v>
+      </c>
+      <c r="I15" s="7">
+        <v>3352</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15" s="7">
+        <v>13</v>
+      </c>
+      <c r="N15" s="7">
+        <v>9700</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>6</v>
+      </c>
+      <c r="D16" s="7">
+        <v>4394</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="H16" s="7">
+        <v>7</v>
+      </c>
+      <c r="I16" s="7">
+        <v>4777</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="M16" s="7">
+        <v>13</v>
+      </c>
+      <c r="N16" s="7">
+        <v>9171</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="7">
+        <v>23</v>
+      </c>
+      <c r="D17" s="7">
+        <v>16303</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="H17" s="7">
+        <v>26</v>
+      </c>
+      <c r="I17" s="7">
+        <v>16451</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="M17" s="7">
+        <v>49</v>
+      </c>
+      <c r="N17" s="7">
+        <v>32754</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>29</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>20697</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="7">
         <v>33</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>21228</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M18" s="7">
         <v>62</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>41925</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>16</v>
+      <c r="O18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3427,8 +3918,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{986BC366-AD55-4CC1-853A-F39A69CA6AE2}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CB5E2DB-D69F-4348-857C-34D16E4FB47D}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3444,7 +3935,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3545,100 +4036,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>3101</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>206</v>
+        <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="7">
-        <v>4</v>
-      </c>
-      <c r="I4" s="7">
-        <v>1731</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="7">
-        <v>10</v>
-      </c>
-      <c r="N4" s="7">
-        <v>4832</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>208</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D5" s="7">
-        <v>595</v>
+        <v>2611</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>209</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>24</v>
+        <v>111</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>210</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>1307</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>120</v>
+        <v>23</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N5" s="7">
-        <v>595</v>
+        <v>3918</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>211</v>
+        <v>21</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>24</v>
+        <v>204</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>212</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3647,153 +4138,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D6" s="7">
-        <v>3696</v>
+        <v>2611</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H6" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I6" s="7">
-        <v>1731</v>
+        <v>1307</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="N6" s="7">
-        <v>5427</v>
+        <v>3918</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>2652</v>
+        <v>595</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>14</v>
+        <v>205</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>213</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>16</v>
+        <v>206</v>
       </c>
       <c r="H7" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>3229</v>
+        <v>1695</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>183</v>
+        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>14</v>
+        <v>208</v>
       </c>
       <c r="M7" s="7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="N7" s="7">
-        <v>5881</v>
+        <v>2290</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>216</v>
+        <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>14</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>2469</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>24</v>
+        <v>211</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>25</v>
+        <v>212</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>217</v>
+        <v>21</v>
       </c>
       <c r="H8" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I8" s="7">
-        <v>1695</v>
+        <v>2907</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>24</v>
+        <v>214</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>175</v>
+        <v>21</v>
       </c>
       <c r="M8" s="7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="N8" s="7">
-        <v>1695</v>
+        <v>5376</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>24</v>
+        <v>216</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>220</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3802,153 +4293,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D9" s="7">
-        <v>2652</v>
+        <v>3064</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H9" s="7">
         <v>7</v>
       </c>
       <c r="I9" s="7">
-        <v>4924</v>
+        <v>4602</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N9" s="7">
-        <v>7576</v>
+        <v>7666</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>2965</v>
+        <v>775</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>222</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H10" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>1923</v>
+        <v>604</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>224</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="M10" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N10" s="7">
-        <v>4889</v>
+        <v>1379</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>226</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" s="7">
-        <v>2454</v>
+        <v>1637</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>229</v>
+        <v>21</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" s="7">
-        <v>604</v>
+        <v>1388</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>231</v>
+        <v>21</v>
       </c>
       <c r="M11" s="7">
         <v>4</v>
       </c>
       <c r="N11" s="7">
-        <v>3058</v>
+        <v>3025</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>234</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3957,153 +4448,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>3</v>
+      </c>
+      <c r="D12" s="7">
+        <v>2412</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="7">
+        <v>3</v>
+      </c>
+      <c r="I12" s="7">
+        <v>1992</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" s="7">
         <v>6</v>
       </c>
-      <c r="D12" s="7">
-        <v>5419</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="7">
-        <v>4</v>
-      </c>
-      <c r="I12" s="7">
-        <v>2527</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M12" s="7">
-        <v>10</v>
-      </c>
       <c r="N12" s="7">
-        <v>7947</v>
+        <v>4404</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>2</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1679</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="7">
-        <v>8719</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="H13" s="7">
+      <c r="L13" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="M13" s="7">
+        <v>2</v>
+      </c>
+      <c r="N13" s="7">
+        <v>1679</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="7">
-        <v>6883</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="M13" s="7">
-        <v>26</v>
-      </c>
-      <c r="N13" s="7">
-        <v>15602</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>242</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
+        <v>2</v>
+      </c>
+      <c r="D14" s="7">
+        <v>2002</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="7">
+        <v>2</v>
+      </c>
+      <c r="I14" s="7">
+        <v>1281</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M14" s="7">
         <v>4</v>
       </c>
-      <c r="D14" s="7">
-        <v>3049</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="H14" s="7">
-        <v>3</v>
-      </c>
-      <c r="I14" s="7">
-        <v>2299</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="M14" s="7">
-        <v>7</v>
-      </c>
       <c r="N14" s="7">
-        <v>5348</v>
+        <v>3284</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>251</v>
+        <v>230</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>252</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4112,55 +4603,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>4</v>
+      </c>
+      <c r="D15" s="7">
+        <v>3681</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="7">
+        <v>2</v>
+      </c>
+      <c r="I15" s="7">
+        <v>1281</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15" s="7">
+        <v>6</v>
+      </c>
+      <c r="N15" s="7">
+        <v>4963</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>4</v>
+      </c>
+      <c r="D16" s="7">
+        <v>3049</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="H16" s="7">
+        <v>3</v>
+      </c>
+      <c r="I16" s="7">
+        <v>2299</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="M16" s="7">
+        <v>7</v>
+      </c>
+      <c r="N16" s="7">
+        <v>5348</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="7">
+      <c r="C17" s="7">
+        <v>14</v>
+      </c>
+      <c r="D17" s="7">
+        <v>8719</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="H17" s="7">
+        <v>12</v>
+      </c>
+      <c r="I17" s="7">
+        <v>6883</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="M17" s="7">
+        <v>26</v>
+      </c>
+      <c r="N17" s="7">
+        <v>15602</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
+        <v>18</v>
+      </c>
+      <c r="D18" s="7">
         <v>11768</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="7">
         <v>15</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>9182</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M18" s="7">
         <v>33</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>20950</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>16</v>
+      <c r="O18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP21B-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP21B-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{697C27BA-93A3-4981-960F-0FF8E0697113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{867CB6CD-B4F6-4218-A29D-8820866ACFDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D0A7953C-86E5-4E41-9D9C-9DD32B0B07D3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AAB88B21-2F30-4336-94AE-74757CAF5129}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="255">
   <si>
     <t>Menores según si estuvo en lista de espera en 2007 (Tasa respuesta: 4,23%)</t>
   </si>
@@ -80,7 +80,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>22,12%</t>
+    <t>23,64%</t>
   </si>
   <si>
     <t>0%</t>
@@ -92,190 +92,196 @@
     <t>2,11%</t>
   </si>
   <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>54,55%</t>
+  </si>
+  <si>
+    <t>70,95%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>67,02%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>69,79%</t>
+  </si>
+  <si>
+    <t>45,45%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>58,11%</t>
+  </si>
+  <si>
+    <t>60,26%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>66,33%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>41,89%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>72,75%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
     <t>9,72%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>75,47%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
   </si>
   <si>
     <t>90,28%</t>
   </si>
   <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>57,6%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>69,1%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>54,56%</t>
-  </si>
-  <si>
-    <t>70,95%</t>
-  </si>
-  <si>
-    <t>42,4%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>67,02%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>69,79%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>56,97%</t>
-  </si>
-  <si>
-    <t>60,26%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>72,75%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>78,53%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
+    <t>75,64%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
   </si>
   <si>
     <t>88,84%</t>
   </si>
   <si>
-    <t>80,62%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -290,13 +296,13 @@
     <t>9,59%</t>
   </si>
   <si>
-    <t>30,15%</t>
+    <t>29,0%</t>
   </si>
   <si>
     <t>5,52%</t>
   </si>
   <si>
-    <t>20,45%</t>
+    <t>17,27%</t>
   </si>
   <si>
     <t>88,17%</t>
@@ -305,67 +311,67 @@
     <t>90,41%</t>
   </si>
   <si>
-    <t>69,85%</t>
+    <t>71,0%</t>
   </si>
   <si>
     <t>94,48%</t>
   </si>
   <si>
-    <t>79,55%</t>
+    <t>82,73%</t>
   </si>
   <si>
     <t>36,79%</t>
   </si>
   <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>60,61%</t>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>60,86%</t>
   </si>
   <si>
     <t>27,13%</t>
   </si>
   <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>54,12%</t>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>53,45%</t>
   </si>
   <si>
     <t>32,3%</t>
   </si>
   <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>48,52%</t>
   </si>
   <si>
     <t>63,21%</t>
   </si>
   <si>
-    <t>39,39%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
   </si>
   <si>
     <t>72,87%</t>
   </si>
   <si>
-    <t>45,88%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
+    <t>46,55%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
   </si>
   <si>
     <t>67,7%</t>
   </si>
   <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -383,76 +389,82 @@
     <t>22,58%</t>
   </si>
   <si>
-    <t>61,01%</t>
+    <t>62,21%</t>
   </si>
   <si>
     <t>18,06%</t>
   </si>
   <si>
-    <t>55,4%</t>
+    <t>48,64%</t>
   </si>
   <si>
     <t>77,42%</t>
   </si>
   <si>
-    <t>38,99%</t>
+    <t>37,79%</t>
   </si>
   <si>
     <t>81,94%</t>
   </si>
   <si>
-    <t>44,6%</t>
+    <t>51,36%</t>
   </si>
   <si>
     <t>18,03%</t>
   </si>
   <si>
-    <t>8,13%</t>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
   </si>
   <si>
     <t>15,53%</t>
   </si>
   <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
   </si>
   <si>
     <t>16,87%</t>
   </si>
   <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
   </si>
   <si>
     <t>81,97%</t>
   </si>
   <si>
-    <t>91,87%</t>
+    <t>69,42%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
   </si>
   <si>
     <t>84,47%</t>
   </si>
   <si>
-    <t>70,84%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
+    <t>70,27%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
   </si>
   <si>
     <t>83,13%</t>
   </si>
   <si>
-    <t>74,36%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>Menores según si estuvo en lista de espera en 2015 (Tasa respuesta: 2,92%)</t>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>Menores según si estuvo en lista de espera en 2016 (Tasa respuesta: 2,92%)</t>
   </si>
   <si>
     <t>18,74%</t>
@@ -476,175 +488,175 @@
     <t>40,27%</t>
   </si>
   <si>
-    <t>82,1%</t>
+    <t>82,38%</t>
   </si>
   <si>
     <t>46,64%</t>
   </si>
   <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>75,6%</t>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>76,45%</t>
   </si>
   <si>
     <t>44,62%</t>
   </si>
   <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>70,07%</t>
   </si>
   <si>
     <t>59,73%</t>
   </si>
   <si>
-    <t>17,9%</t>
+    <t>17,62%</t>
   </si>
   <si>
     <t>53,36%</t>
   </si>
   <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>81,59%</t>
   </si>
   <si>
     <t>55,38%</t>
   </si>
   <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
   </si>
   <si>
     <t>41,43%</t>
   </si>
   <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>75,81%</t>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
   </si>
   <si>
     <t>36,81%</t>
   </si>
   <si>
-    <t>84,32%</t>
+    <t>83,17%</t>
   </si>
   <si>
     <t>39,42%</t>
   </si>
   <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>66,74%</t>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>68,64%</t>
   </si>
   <si>
     <t>58,57%</t>
   </si>
   <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
   </si>
   <si>
     <t>63,19%</t>
   </si>
   <si>
-    <t>15,68%</t>
+    <t>16,83%</t>
   </si>
   <si>
     <t>60,58%</t>
   </si>
   <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
   </si>
   <si>
     <t>14,04%</t>
   </si>
   <si>
-    <t>53,42%</t>
+    <t>60,38%</t>
   </si>
   <si>
     <t>9,19%</t>
   </si>
   <si>
-    <t>36,51%</t>
+    <t>44,19%</t>
   </si>
   <si>
     <t>85,96%</t>
   </si>
   <si>
-    <t>46,58%</t>
+    <t>39,62%</t>
   </si>
   <si>
     <t>90,81%</t>
   </si>
   <si>
-    <t>63,49%</t>
+    <t>55,81%</t>
   </si>
   <si>
     <t>21,23%</t>
   </si>
   <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>39,12%</t>
   </si>
   <si>
     <t>22,51%</t>
   </si>
   <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
   </si>
   <si>
     <t>21,88%</t>
   </si>
   <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
   </si>
   <si>
     <t>78,77%</t>
   </si>
   <si>
-    <t>60,69%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
+    <t>60,88%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
   </si>
   <si>
     <t>77,49%</t>
   </si>
   <si>
-    <t>60,3%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
+    <t>59,31%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
   </si>
   <si>
     <t>78,12%</t>
   </si>
   <si>
-    <t>65,9%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
+    <t>64,88%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
   </si>
   <si>
     <t>Menores según si estuvo en lista de espera en 2023 (Tasa respuesta: 1,72%)</t>
@@ -659,37 +671,43 @@
     <t>19,42%</t>
   </si>
   <si>
-    <t>73,86%</t>
+    <t>70,47%</t>
   </si>
   <si>
     <t>36,83%</t>
   </si>
   <si>
-    <t>83,3%</t>
+    <t>79,05%</t>
   </si>
   <si>
     <t>29,87%</t>
   </si>
   <si>
-    <t>58,3%</t>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>61,92%</t>
   </si>
   <si>
     <t>80,58%</t>
   </si>
   <si>
-    <t>26,14%</t>
+    <t>29,53%</t>
   </si>
   <si>
     <t>63,17%</t>
   </si>
   <si>
-    <t>16,7%</t>
+    <t>20,95%</t>
   </si>
   <si>
     <t>70,13%</t>
   </si>
   <si>
-    <t>41,7%</t>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
   </si>
   <si>
     <t>32,13%</t>
@@ -701,7 +719,7 @@
     <t>31,32%</t>
   </si>
   <si>
-    <t>70,11%</t>
+    <t>82,33%</t>
   </si>
   <si>
     <t>67,87%</t>
@@ -713,7 +731,7 @@
     <t>68,68%</t>
   </si>
   <si>
-    <t>29,89%</t>
+    <t>17,67%</t>
   </si>
   <si>
     <t>45,6%</t>
@@ -737,55 +755,55 @@
     <t>25,91%</t>
   </si>
   <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>52,11%</t>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>51,12%</t>
   </si>
   <si>
     <t>25,04%</t>
   </si>
   <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>53,93%</t>
   </si>
   <si>
     <t>25,53%</t>
   </si>
   <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>43,76%</t>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>43,27%</t>
   </si>
   <si>
     <t>74,09%</t>
   </si>
   <si>
-    <t>47,89%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
   </si>
   <si>
     <t>74,96%</t>
   </si>
   <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
   </si>
   <si>
     <t>74,47%</t>
   </si>
   <si>
-    <t>56,24%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
+    <t>56,73%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
   </si>
 </sst>
 </file>
@@ -1197,7 +1215,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{007D3AAD-1EB0-4D58-BE72-3893B7C16F6C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8B9BD51-9EE3-43F7-8F35-E321FED544B4}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1956,13 +1974,13 @@
         <v>2469</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -1971,13 +1989,13 @@
         <v>6538</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1992,13 +2010,13 @@
         <v>29085</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H17" s="7">
         <v>36</v>
@@ -2007,13 +2025,13 @@
         <v>22942</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M17" s="7">
         <v>79</v>
@@ -2022,13 +2040,13 @@
         <v>52027</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2084,7 +2102,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2104,7 +2122,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60B262C8-CDA6-4169-BD55-66A94A2DFB8B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6390D7C2-ECB5-44C7-9163-2C055CA2648B}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2121,7 +2139,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2234,7 +2252,7 @@
         <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -2243,13 +2261,13 @@
         <v>1379</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -2258,13 +2276,13 @@
         <v>1379</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2282,7 +2300,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>23</v>
@@ -2294,10 +2312,10 @@
         <v>13008</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
@@ -2309,10 +2327,10 @@
         <v>23622</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>21</v>
@@ -2383,13 +2401,13 @@
         <v>4650</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -2398,13 +2416,13 @@
         <v>2974</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M7" s="7">
         <v>11</v>
@@ -2413,13 +2431,13 @@
         <v>7623</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2434,13 +2452,13 @@
         <v>7989</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H8" s="7">
         <v>12</v>
@@ -2449,13 +2467,13 @@
         <v>7986</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M8" s="7">
         <v>23</v>
@@ -2464,13 +2482,13 @@
         <v>15976</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2544,7 +2562,7 @@
         <v>14</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2559,7 +2577,7 @@
         <v>14</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -2592,7 +2610,7 @@
         <v>21</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>23</v>
@@ -2607,7 +2625,7 @@
         <v>21</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>23</v>
@@ -2693,13 +2711,13 @@
         <v>1205</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -2714,7 +2732,7 @@
         <v>14</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -2723,13 +2741,13 @@
         <v>1205</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2744,10 +2762,10 @@
         <v>4132</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>21</v>
@@ -2762,7 +2780,7 @@
         <v>21</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>23</v>
@@ -2774,10 +2792,10 @@
         <v>5467</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>21</v>
@@ -2848,13 +2866,13 @@
         <v>5854</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>83</v>
+        <v>125</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -2863,13 +2881,13 @@
         <v>4353</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="M16" s="7">
         <v>15</v>
@@ -2878,13 +2896,13 @@
         <v>10207</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2899,13 +2917,13 @@
         <v>26623</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>88</v>
+        <v>133</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="H17" s="7">
         <v>35</v>
@@ -2914,13 +2932,13 @@
         <v>23673</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="M17" s="7">
         <v>72</v>
@@ -2929,13 +2947,13 @@
         <v>50296</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2991,7 +3009,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -3011,7 +3029,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6688211-1715-4931-821E-A96F11650385}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{642F949A-53A8-4217-A760-0D4241F2634A}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3028,7 +3046,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3141,7 +3159,7 @@
         <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3156,7 +3174,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3171,7 +3189,7 @@
         <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3189,7 +3207,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>23</v>
@@ -3204,7 +3222,7 @@
         <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>23</v>
@@ -3219,7 +3237,7 @@
         <v>21</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>23</v>
@@ -3290,13 +3308,13 @@
         <v>1316</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -3305,13 +3323,13 @@
         <v>3280</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -3320,13 +3338,13 @@
         <v>4596</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3341,10 +3359,10 @@
         <v>1953</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>21</v>
@@ -3356,13 +3374,13 @@
         <v>3752</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M8" s="7">
         <v>9</v>
@@ -3371,13 +3389,13 @@
         <v>5705</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3445,13 +3463,13 @@
         <v>2186</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -3460,13 +3478,13 @@
         <v>1497</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -3475,13 +3493,13 @@
         <v>3684</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3496,13 +3514,13 @@
         <v>3090</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="H11" s="7">
         <v>4</v>
@@ -3511,10 +3529,10 @@
         <v>2570</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>21</v>
@@ -3526,13 +3544,13 @@
         <v>5660</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3600,13 +3618,13 @@
         <v>891</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3621,7 +3639,7 @@
         <v>14</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -3630,13 +3648,13 @@
         <v>891</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3651,10 +3669,10 @@
         <v>5458</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>21</v>
@@ -3669,7 +3687,7 @@
         <v>21</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>23</v>
@@ -3681,10 +3699,10 @@
         <v>8809</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>21</v>
@@ -3755,13 +3773,13 @@
         <v>4394</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -3770,13 +3788,13 @@
         <v>4777</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="M16" s="7">
         <v>13</v>
@@ -3785,13 +3803,13 @@
         <v>9171</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3806,13 +3824,13 @@
         <v>16303</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="H17" s="7">
         <v>26</v>
@@ -3821,13 +3839,13 @@
         <v>16451</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="M17" s="7">
         <v>49</v>
@@ -3836,13 +3854,13 @@
         <v>32754</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3898,7 +3916,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -3918,7 +3936,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CB5E2DB-D69F-4348-857C-34D16E4FB47D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F24BA4FA-1BD4-41FB-999D-401C399ECB0E}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3935,7 +3953,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4048,7 +4066,7 @@
         <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4078,7 +4096,7 @@
         <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4096,7 +4114,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>23</v>
@@ -4126,7 +4144,7 @@
         <v>21</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>23</v>
@@ -4197,13 +4215,13 @@
         <v>595</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -4212,13 +4230,13 @@
         <v>1695</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -4227,13 +4245,13 @@
         <v>2290</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>12</v>
+        <v>214</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4248,10 +4266,10 @@
         <v>2469</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>21</v>
@@ -4263,10 +4281,10 @@
         <v>2907</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
@@ -4278,13 +4296,13 @@
         <v>5376</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>21</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4352,7 +4370,7 @@
         <v>775</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
@@ -4367,7 +4385,7 @@
         <v>604</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
@@ -4382,13 +4400,13 @@
         <v>1379</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4403,7 +4421,7 @@
         <v>1637</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>12</v>
@@ -4418,7 +4436,7 @@
         <v>1388</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>12</v>
@@ -4433,10 +4451,10 @@
         <v>3025</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>21</v>
@@ -4507,7 +4525,7 @@
         <v>1679</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>12</v>
@@ -4528,7 +4546,7 @@
         <v>14</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -4537,13 +4555,13 @@
         <v>1679</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4558,7 +4576,7 @@
         <v>2002</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>12</v>
@@ -4576,7 +4594,7 @@
         <v>21</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>23</v>
@@ -4588,10 +4606,10 @@
         <v>3284</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>21</v>
@@ -4662,13 +4680,13 @@
         <v>3049</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -4677,13 +4695,13 @@
         <v>2299</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -4692,13 +4710,13 @@
         <v>5348</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4713,13 +4731,13 @@
         <v>8719</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="H17" s="7">
         <v>12</v>
@@ -4728,13 +4746,13 @@
         <v>6883</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="M17" s="7">
         <v>26</v>
@@ -4743,13 +4761,13 @@
         <v>15602</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4805,7 +4823,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP21B-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP21B-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{867CB6CD-B4F6-4218-A29D-8820866ACFDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{28BE9676-A454-4C28-87CB-3ED6C433D95D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AAB88B21-2F30-4336-94AE-74757CAF5129}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{D3E87741-339F-48E5-8D1B-DE67014BF12C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="253">
   <si>
     <t>Menores según si estuvo en lista de espera en 2007 (Tasa respuesta: 4,23%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -74,214 +74,214 @@
     <t>Sí</t>
   </si>
   <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
     <t>4,39%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
+    <t>21,75%</t>
   </si>
   <si>
     <t>2,11%</t>
   </si>
   <si>
-    <t>11,61%</t>
+    <t>10,69%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>95,61%</t>
   </si>
   <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>100%</t>
+    <t>78,25%</t>
   </si>
   <si>
     <t>97,89%</t>
   </si>
   <si>
-    <t>88,39%</t>
+    <t>89,31%</t>
   </si>
   <si>
     <t>3-7</t>
   </si>
   <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>82,94%</t>
+  </si>
+  <si>
     <t>29,05%</t>
   </si>
   <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>58,32%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>62,27%</t>
   </si>
   <si>
     <t>30,21%</t>
   </si>
   <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>54,55%</t>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>54,58%</t>
+  </si>
+  <si>
+    <t>67,02%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
   </si>
   <si>
     <t>70,95%</t>
   </si>
   <si>
-    <t>41,68%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>67,02%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
   </si>
   <si>
     <t>69,79%</t>
   </si>
   <si>
-    <t>45,45%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
+    <t>45,42%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
   </si>
   <si>
     <t>8-11</t>
   </si>
   <si>
+    <t>60,26%</t>
+  </si>
+  <si>
     <t>13,51%</t>
   </si>
   <si>
-    <t>58,11%</t>
-  </si>
-  <si>
-    <t>60,26%</t>
+    <t>55,61%</t>
   </si>
   <si>
     <t>27,25%</t>
   </si>
   <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>66,33%</t>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>57,59%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
   </si>
   <si>
     <t>86,49%</t>
   </si>
   <si>
-    <t>41,89%</t>
-  </si>
-  <si>
-    <t>39,74%</t>
+    <t>44,39%</t>
   </si>
   <si>
     <t>72,75%</t>
   </si>
   <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
+    <t>42,41%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
   </si>
   <si>
     <t>12-15</t>
   </si>
   <si>
+    <t>44,41%</t>
+  </si>
+  <si>
     <t>36,25%</t>
   </si>
   <si>
-    <t>44,41%</t>
-  </si>
-  <si>
     <t>23,25%</t>
   </si>
   <si>
+    <t>55,59%</t>
+  </si>
+  <si>
     <t>63,75%</t>
   </si>
   <si>
-    <t>55,59%</t>
-  </si>
-  <si>
     <t>76,75%</t>
   </si>
   <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
     <t>12,27%</t>
   </si>
   <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
   </si>
   <si>
     <t>11,16%</t>
   </si>
   <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
   </si>
   <si>
     <t>87,73%</t>
   </si>
   <si>
-    <t>75,47%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>75,64%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
   </si>
   <si>
     <t>88,84%</t>
   </si>
   <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
+    <t>80,93%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -290,373 +290,373 @@
     <t>Menores según si estuvo en lista de espera en 2012 (Tasa respuesta: 4,14%)</t>
   </si>
   <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
     <t>11,83%</t>
   </si>
   <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
     <t>5,52%</t>
   </si>
   <si>
-    <t>17,27%</t>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>71,0%</t>
   </si>
   <si>
     <t>88,17%</t>
   </si>
   <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>71,0%</t>
-  </si>
-  <si>
     <t>94,48%</t>
   </si>
   <si>
-    <t>82,73%</t>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>53,07%</t>
   </si>
   <si>
     <t>36,79%</t>
   </si>
   <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>60,86%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>53,45%</t>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
   </si>
   <si>
     <t>32,3%</t>
   </si>
   <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>48,52%</t>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>48,79%</t>
+  </si>
+  <si>
+    <t>72,87%</t>
+  </si>
+  <si>
+    <t>46,93%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
   </si>
   <si>
     <t>63,21%</t>
   </si>
   <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>72,87%</t>
-  </si>
-  <si>
-    <t>46,55%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
   </si>
   <si>
     <t>67,7%</t>
   </si>
   <si>
-    <t>51,48%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
+    <t>51,21%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
   </si>
   <si>
     <t>30,57%</t>
   </si>
   <si>
-    <t>56,93%</t>
+    <t>43,07%</t>
   </si>
   <si>
     <t>69,43%</t>
   </si>
   <si>
-    <t>43,07%</t>
-  </si>
-  <si>
     <t>22,58%</t>
   </si>
   <si>
-    <t>62,21%</t>
+    <t>59,52%</t>
   </si>
   <si>
     <t>18,06%</t>
   </si>
   <si>
-    <t>48,64%</t>
+    <t>48,81%</t>
   </si>
   <si>
     <t>77,42%</t>
   </si>
   <si>
-    <t>37,79%</t>
+    <t>40,48%</t>
   </si>
   <si>
     <t>81,94%</t>
   </si>
   <si>
-    <t>51,36%</t>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
   </si>
   <si>
     <t>18,03%</t>
   </si>
   <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
   </si>
   <si>
     <t>16,87%</t>
   </si>
   <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>69,93%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
   </si>
   <si>
     <t>81,97%</t>
   </si>
   <si>
-    <t>69,42%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>70,27%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
   </si>
   <si>
     <t>83,13%</t>
   </si>
   <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
+    <t>74,74%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
   </si>
   <si>
     <t>Menores según si estuvo en lista de espera en 2016 (Tasa respuesta: 2,92%)</t>
   </si>
   <si>
+    <t>15,69%</t>
+  </si>
+  <si>
     <t>18,74%</t>
   </si>
   <si>
-    <t>15,69%</t>
-  </si>
-  <si>
     <t>9,05%</t>
   </si>
   <si>
+    <t>84,31%</t>
+  </si>
+  <si>
     <t>81,26%</t>
   </si>
   <si>
-    <t>84,31%</t>
-  </si>
-  <si>
     <t>90,95%</t>
   </si>
   <si>
+    <t>46,64%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>74,14%</t>
+  </si>
+  <si>
     <t>40,27%</t>
   </si>
   <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>46,64%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>76,45%</t>
+    <t>82,17%</t>
   </si>
   <si>
     <t>44,62%</t>
   </si>
   <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>70,07%</t>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>69,34%</t>
+  </si>
+  <si>
+    <t>53,36%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>82,16%</t>
   </si>
   <si>
     <t>59,73%</t>
   </si>
   <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>53,36%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
+    <t>17,83%</t>
   </si>
   <si>
     <t>55,38%</t>
   </si>
   <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
+  </si>
+  <si>
+    <t>36,81%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
   </si>
   <si>
     <t>41,43%</t>
   </si>
   <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>80,53%</t>
-  </si>
-  <si>
-    <t>36,81%</t>
-  </si>
-  <si>
-    <t>83,17%</t>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>74,69%</t>
   </si>
   <si>
     <t>39,42%</t>
   </si>
   <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>68,64%</t>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>66,72%</t>
+  </si>
+  <si>
+    <t>63,19%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
   </si>
   <si>
     <t>58,57%</t>
   </si>
   <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>63,19%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
   </si>
   <si>
     <t>60,58%</t>
   </si>
   <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
   </si>
   <si>
     <t>14,04%</t>
   </si>
   <si>
-    <t>60,38%</t>
+    <t>55,18%</t>
   </si>
   <si>
     <t>9,19%</t>
   </si>
   <si>
-    <t>44,19%</t>
+    <t>44,35%</t>
   </si>
   <si>
     <t>85,96%</t>
   </si>
   <si>
-    <t>39,62%</t>
+    <t>44,82%</t>
   </si>
   <si>
     <t>90,81%</t>
   </si>
   <si>
-    <t>55,81%</t>
+    <t>55,65%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>39,94%</t>
   </si>
   <si>
     <t>21,23%</t>
   </si>
   <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>39,12%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
   </si>
   <si>
     <t>21,88%</t>
   </si>
   <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>77,49%</t>
+  </si>
+  <si>
+    <t>60,06%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
   </si>
   <si>
     <t>78,77%</t>
   </si>
   <si>
-    <t>60,88%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>77,49%</t>
-  </si>
-  <si>
-    <t>59,31%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
+    <t>59,13%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
   </si>
   <si>
     <t>78,12%</t>
   </si>
   <si>
-    <t>64,88%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
+    <t>66,35%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
   </si>
   <si>
     <t>Menores según si estuvo en lista de espera en 2023 (Tasa respuesta: 1,72%)</t>
@@ -668,142 +668,136 @@
     <t>79,25%</t>
   </si>
   <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>70,47%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>79,05%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>61,92%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>63,17%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>70,13%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>69,66%</t>
-  </si>
-  <si>
-    <t>68,68%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>45,6%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>54,4%</t>
-  </si>
-  <si>
-    <t>66,17%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>53,93%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>48,88%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>74,96%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>74,47%</t>
-  </si>
-  <si>
-    <t>56,73%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>81,61%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>80,24%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>57,93%</t>
+  </si>
+  <si>
+    <t>63,55%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>80,66%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>70,64%</t>
+  </si>
+  <si>
+    <t>42,07%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>71,36%</t>
+  </si>
+  <si>
+    <t>66,67%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>43,84%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>56,16%</t>
+  </si>
+  <si>
+    <t>67,12%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>43,04%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>74,31%</t>
+  </si>
+  <si>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>74,89%</t>
+  </si>
+  <si>
+    <t>56,96%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
   </si>
 </sst>
 </file>
@@ -1215,7 +1209,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8B9BD51-9EE3-43F7-8F35-E321FED544B4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98C9DABE-2A29-4EB4-8BA6-63D0744ABD2F}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1333,10 +1327,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>719</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1348,16 +1342,16 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>719</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>15</v>
@@ -1372,7 +1366,7 @@
         <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>17</v>
@@ -1384,10 +1378,10 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D5" s="7">
-        <v>15650</v>
+        <v>17658</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
@@ -1399,19 +1393,19 @@
         <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I5" s="7">
-        <v>17658</v>
+        <v>15650</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
         <v>51</v>
@@ -1426,7 +1420,7 @@
         <v>25</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1435,34 +1429,34 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>28</v>
+      </c>
+      <c r="D6" s="7">
+        <v>17658</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="7">
         <v>24</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>16369</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="7">
-        <v>28</v>
-      </c>
-      <c r="I6" s="7">
-        <v>17658</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
         <v>52</v>
@@ -1471,13 +1465,13 @@
         <v>34026</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1488,31 +1482,31 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>2714</v>
+        <v>1289</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>27</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="7">
+        <v>4</v>
+      </c>
+      <c r="I7" s="7">
+        <v>2714</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="7">
-        <v>2</v>
-      </c>
-      <c r="I7" s="7">
-        <v>1289</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>31</v>
@@ -1539,10 +1533,10 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D8" s="7">
-        <v>6628</v>
+        <v>2619</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>35</v>
@@ -1551,22 +1545,22 @@
         <v>36</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="7">
+        <v>10</v>
+      </c>
+      <c r="I8" s="7">
+        <v>6628</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H8" s="7">
-        <v>4</v>
-      </c>
-      <c r="I8" s="7">
-        <v>2619</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="M8" s="7">
         <v>14</v>
@@ -1590,34 +1584,34 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>6</v>
+      </c>
+      <c r="D9" s="7">
+        <v>3908</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="7">
         <v>14</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>9342</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="7">
-        <v>6</v>
-      </c>
-      <c r="I9" s="7">
-        <v>3908</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
         <v>20</v>
@@ -1626,13 +1620,13 @@
         <v>13250</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1643,34 +1637,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>636</v>
+        <v>1181</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="7">
+        <v>1</v>
+      </c>
+      <c r="I10" s="7">
+        <v>636</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="7">
-        <v>2</v>
-      </c>
-      <c r="I10" s="7">
-        <v>1181</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -1694,34 +1688,34 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>4071</v>
+        <v>778</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="7">
+        <v>6</v>
+      </c>
+      <c r="I11" s="7">
+        <v>4071</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="7">
-        <v>1</v>
-      </c>
-      <c r="I11" s="7">
-        <v>778</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
         <v>7</v>
@@ -1745,34 +1739,34 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>3</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1959</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="7">
         <v>7</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>4707</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" s="7">
-        <v>3</v>
-      </c>
-      <c r="I12" s="7">
-        <v>1959</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
         <v>10</v>
@@ -1781,13 +1775,13 @@
         <v>6666</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1804,10 +1798,10 @@
         <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>57</v>
@@ -1819,10 +1813,10 @@
         <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>58</v>
@@ -1834,10 +1828,10 @@
         <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>59</v>
@@ -1849,34 +1843,34 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" s="7">
-        <v>2736</v>
+        <v>1887</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>60</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H14" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I14" s="7">
-        <v>1887</v>
+        <v>2736</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>61</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M14" s="7">
         <v>7</v>
@@ -1885,13 +1879,13 @@
         <v>4622</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>62</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1900,34 +1894,34 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>3</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1887</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="7">
         <v>4</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>2736</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" s="7">
-        <v>3</v>
-      </c>
-      <c r="I15" s="7">
-        <v>1887</v>
-      </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M15" s="7">
         <v>7</v>
@@ -1936,13 +1930,13 @@
         <v>4622</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1953,10 +1947,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D16" s="7">
-        <v>4069</v>
+        <v>2469</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>63</v>
@@ -1968,10 +1962,10 @@
         <v>65</v>
       </c>
       <c r="H16" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I16" s="7">
-        <v>2469</v>
+        <v>4069</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>66</v>
@@ -2004,10 +1998,10 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D17" s="7">
-        <v>29085</v>
+        <v>22942</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>72</v>
@@ -2019,10 +2013,10 @@
         <v>74</v>
       </c>
       <c r="H17" s="7">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="I17" s="7">
-        <v>22942</v>
+        <v>29085</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>75</v>
@@ -2055,34 +2049,34 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>40</v>
+      </c>
+      <c r="D18" s="7">
+        <v>25411</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="7">
         <v>49</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>33154</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H18" s="7">
-        <v>40</v>
-      </c>
-      <c r="I18" s="7">
-        <v>25411</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M18" s="7">
         <v>89</v>
@@ -2091,13 +2085,13 @@
         <v>58565</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2122,7 +2116,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6390D7C2-ECB5-44C7-9163-2C055CA2648B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8174D473-7AE7-4FD6-9B3F-6623BECFACF8}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2240,28 +2234,28 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>2</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1379</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>0</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="H4" s="7">
-        <v>2</v>
-      </c>
-      <c r="I4" s="7">
-        <v>1379</v>
-      </c>
       <c r="J4" s="7" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
@@ -2279,7 +2273,7 @@
         <v>86</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>87</v>
@@ -2291,28 +2285,28 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
+        <v>19</v>
+      </c>
+      <c r="D5" s="7">
+        <v>13008</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="7">
         <v>15</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>10614</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="7">
+      <c r="J5" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="I5" s="7">
-        <v>13008</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>90</v>
@@ -2333,7 +2327,7 @@
         <v>92</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2342,34 +2336,34 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>21</v>
+      </c>
+      <c r="D6" s="7">
+        <v>14387</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="7">
         <v>15</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>10614</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="7">
-        <v>21</v>
-      </c>
-      <c r="I6" s="7">
-        <v>14387</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
         <v>36</v>
@@ -2378,13 +2372,13 @@
         <v>25001</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2395,10 +2389,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D7" s="7">
-        <v>4650</v>
+        <v>2974</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>93</v>
@@ -2410,10 +2404,10 @@
         <v>95</v>
       </c>
       <c r="H7" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I7" s="7">
-        <v>2974</v>
+        <v>4650</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>96</v>
@@ -2446,10 +2440,10 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D8" s="7">
-        <v>7989</v>
+        <v>7986</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>102</v>
@@ -2461,10 +2455,10 @@
         <v>104</v>
       </c>
       <c r="H8" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I8" s="7">
-        <v>7986</v>
+        <v>7989</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>105</v>
@@ -2497,34 +2491,34 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>16</v>
+      </c>
+      <c r="D9" s="7">
+        <v>10960</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="7">
         <v>18</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>12639</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="7">
-        <v>16</v>
-      </c>
-      <c r="I9" s="7">
-        <v>10960</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
         <v>34</v>
@@ -2533,13 +2527,13 @@
         <v>23599</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2556,10 +2550,10 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>111</v>
@@ -2571,10 +2565,10 @@
         <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>112</v>
@@ -2586,10 +2580,10 @@
         <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>59</v>
@@ -2601,34 +2595,34 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" s="7">
-        <v>3887</v>
+        <v>1343</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>113</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H11" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I11" s="7">
-        <v>1343</v>
+        <v>3887</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>114</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M11" s="7">
         <v>7</v>
@@ -2637,13 +2631,13 @@
         <v>5231</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>62</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2652,34 +2646,34 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>2</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1343</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="7">
         <v>5</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>3887</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" s="7">
-        <v>2</v>
-      </c>
-      <c r="I12" s="7">
-        <v>1343</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
         <v>7</v>
@@ -2688,13 +2682,13 @@
         <v>5231</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2705,34 +2699,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>1205</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H13" s="7">
+        <v>2</v>
+      </c>
+      <c r="I13" s="7">
+        <v>1205</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -2744,7 +2738,7 @@
         <v>117</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>118</v>
@@ -2756,34 +2750,34 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
+        <v>2</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1336</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="7">
         <v>6</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>4132</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14" s="7">
-        <v>2</v>
-      </c>
-      <c r="I14" s="7">
-        <v>1336</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>114</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
         <v>8</v>
@@ -2798,7 +2792,7 @@
         <v>122</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2807,34 +2801,34 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>2</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1336</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="7">
         <v>8</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>5337</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" s="7">
-        <v>2</v>
-      </c>
-      <c r="I15" s="7">
-        <v>1336</v>
-      </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M15" s="7">
         <v>10</v>
@@ -2843,13 +2837,13 @@
         <v>6672</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2860,10 +2854,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D16" s="7">
-        <v>5854</v>
+        <v>4353</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>123</v>
@@ -2875,10 +2869,10 @@
         <v>125</v>
       </c>
       <c r="H16" s="7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I16" s="7">
-        <v>4353</v>
+        <v>5854</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>126</v>
@@ -2911,10 +2905,10 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D17" s="7">
-        <v>26623</v>
+        <v>23673</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>132</v>
@@ -2926,10 +2920,10 @@
         <v>134</v>
       </c>
       <c r="H17" s="7">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I17" s="7">
-        <v>23673</v>
+        <v>26623</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>135</v>
@@ -2962,34 +2956,34 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>41</v>
+      </c>
+      <c r="D18" s="7">
+        <v>28026</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="7">
         <v>46</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>32477</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H18" s="7">
-        <v>41</v>
-      </c>
-      <c r="I18" s="7">
-        <v>28026</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M18" s="7">
         <v>87</v>
@@ -2998,13 +2992,13 @@
         <v>60503</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3029,7 +3023,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{642F949A-53A8-4217-A760-0D4241F2634A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E6ABF84-80CA-42D5-BB14-A20A7D389D69}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3153,10 +3147,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>142</v>
@@ -3168,10 +3162,10 @@
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>143</v>
@@ -3183,10 +3177,10 @@
         <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>144</v>
@@ -3198,34 +3192,34 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D5" s="7">
-        <v>5803</v>
+        <v>6777</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>145</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I5" s="7">
-        <v>6777</v>
+        <v>5803</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>146</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M5" s="7">
         <v>20</v>
@@ -3234,13 +3228,13 @@
         <v>12580</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>147</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3249,34 +3243,34 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>11</v>
+      </c>
+      <c r="D6" s="7">
+        <v>6777</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="7">
         <v>9</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>5803</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="7">
-        <v>11</v>
-      </c>
-      <c r="I6" s="7">
-        <v>6777</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
         <v>20</v>
@@ -3285,13 +3279,13 @@
         <v>12580</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3302,31 +3296,31 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" s="7">
-        <v>1316</v>
+        <v>3280</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>148</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>12</v>
+        <v>149</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H7" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>3280</v>
+        <v>1316</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>151</v>
+        <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>152</v>
@@ -3353,10 +3347,10 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D8" s="7">
-        <v>1953</v>
+        <v>3752</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>156</v>
@@ -3365,22 +3359,22 @@
         <v>157</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>21</v>
+        <v>158</v>
       </c>
       <c r="H8" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I8" s="7">
-        <v>3752</v>
+        <v>1953</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>160</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
         <v>9</v>
@@ -3404,34 +3398,34 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>11</v>
+      </c>
+      <c r="D9" s="7">
+        <v>7032</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="7">
         <v>5</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>3269</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="7">
-        <v>11</v>
-      </c>
-      <c r="I9" s="7">
-        <v>7032</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
         <v>16</v>
@@ -3440,13 +3434,13 @@
         <v>10301</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3457,31 +3451,31 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>2186</v>
+        <v>1497</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>164</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>3</v>
+      </c>
+      <c r="I10" s="7">
+        <v>2186</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="H10" s="7">
-        <v>2</v>
-      </c>
-      <c r="I10" s="7">
-        <v>1497</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>168</v>
@@ -3511,7 +3505,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="7">
-        <v>3090</v>
+        <v>2570</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>172</v>
@@ -3520,22 +3514,22 @@
         <v>173</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>174</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
         <v>4</v>
       </c>
       <c r="I11" s="7">
-        <v>2570</v>
+        <v>3090</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="M11" s="7">
         <v>8</v>
@@ -3559,34 +3553,34 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>6</v>
+      </c>
+      <c r="D12" s="7">
+        <v>4067</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="7">
         <v>7</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>5276</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" s="7">
-        <v>6</v>
-      </c>
-      <c r="I12" s="7">
-        <v>4067</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
         <v>13</v>
@@ -3595,13 +3589,13 @@
         <v>9344</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3612,34 +3606,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>891</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>180</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H13" s="7">
+        <v>1</v>
+      </c>
+      <c r="I13" s="7">
+        <v>891</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -3651,7 +3645,7 @@
         <v>182</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>183</v>
@@ -3663,34 +3657,34 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
+        <v>5</v>
+      </c>
+      <c r="D14" s="7">
+        <v>3352</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="7">
         <v>7</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>5458</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14" s="7">
-        <v>5</v>
-      </c>
-      <c r="I14" s="7">
-        <v>3352</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>113</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
         <v>12</v>
@@ -3705,7 +3699,7 @@
         <v>187</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3714,34 +3708,34 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>5</v>
+      </c>
+      <c r="D15" s="7">
+        <v>3352</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="7">
         <v>8</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>6349</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" s="7">
-        <v>5</v>
-      </c>
-      <c r="I15" s="7">
-        <v>3352</v>
-      </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M15" s="7">
         <v>13</v>
@@ -3750,13 +3744,13 @@
         <v>9700</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3767,10 +3761,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D16" s="7">
-        <v>4394</v>
+        <v>4777</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>188</v>
@@ -3782,10 +3776,10 @@
         <v>190</v>
       </c>
       <c r="H16" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I16" s="7">
-        <v>4777</v>
+        <v>4394</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>191</v>
@@ -3818,10 +3812,10 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D17" s="7">
-        <v>16303</v>
+        <v>16451</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>197</v>
@@ -3833,10 +3827,10 @@
         <v>199</v>
       </c>
       <c r="H17" s="7">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I17" s="7">
-        <v>16451</v>
+        <v>16303</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>200</v>
@@ -3869,34 +3863,34 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>33</v>
+      </c>
+      <c r="D18" s="7">
+        <v>21228</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="7">
         <v>29</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>20697</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H18" s="7">
-        <v>33</v>
-      </c>
-      <c r="I18" s="7">
-        <v>21228</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M18" s="7">
         <v>62</v>
@@ -3905,13 +3899,13 @@
         <v>41925</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3936,7 +3930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F24BA4FA-1BD4-41FB-999D-401C399ECB0E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79FECBF3-6FA3-48FF-A251-975C59B74E7E}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4060,13 +4054,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="G4" s="7" t="s">
-        <v>111</v>
+        <v>57</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4075,13 +4069,13 @@
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="L4" s="7" t="s">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4090,10 +4084,10 @@
         <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>207</v>
@@ -4105,49 +4099,49 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
+        <v>3</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1363</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="7">
         <v>5</v>
       </c>
-      <c r="D5" s="7">
-        <v>2611</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="7">
-        <v>3</v>
-      </c>
       <c r="I5" s="7">
-        <v>1307</v>
+        <v>2701</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>61</v>
+        <v>114</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M5" s="7">
         <v>8</v>
       </c>
       <c r="N5" s="7">
-        <v>3918</v>
+        <v>4064</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>208</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4156,49 +4150,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>3</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1363</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="7">
         <v>5</v>
       </c>
-      <c r="D6" s="7">
-        <v>2611</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="7">
-        <v>3</v>
-      </c>
       <c r="I6" s="7">
-        <v>1307</v>
+        <v>2701</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
         <v>8</v>
       </c>
       <c r="N6" s="7">
-        <v>3918</v>
+        <v>4064</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4209,31 +4203,31 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>595</v>
+        <v>1653</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>209</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>210</v>
       </c>
       <c r="H7" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>1695</v>
+        <v>621</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>211</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>212</v>
@@ -4242,7 +4236,7 @@
         <v>3</v>
       </c>
       <c r="N7" s="7">
-        <v>2290</v>
+        <v>2274</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>213</v>
@@ -4263,7 +4257,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="7">
-        <v>2469</v>
+        <v>2882</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>216</v>
@@ -4272,13 +4266,13 @@
         <v>217</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H8" s="7">
         <v>5</v>
       </c>
       <c r="I8" s="7">
-        <v>2907</v>
+        <v>2588</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>218</v>
@@ -4287,13 +4281,13 @@
         <v>219</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
         <v>10</v>
       </c>
       <c r="N8" s="7">
-        <v>5376</v>
+        <v>5470</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>220</v>
@@ -4311,49 +4305,49 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>7</v>
+      </c>
+      <c r="D9" s="7">
+        <v>4535</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="7">
         <v>6</v>
       </c>
-      <c r="D9" s="7">
-        <v>3064</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="7">
-        <v>7</v>
-      </c>
       <c r="I9" s="7">
-        <v>4602</v>
+        <v>3209</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
         <v>13</v>
       </c>
       <c r="N9" s="7">
-        <v>7666</v>
+        <v>7744</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4367,43 +4361,43 @@
         <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>775</v>
+        <v>590</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>223</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>604</v>
+        <v>925</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>224</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
       </c>
       <c r="N10" s="7">
-        <v>1379</v>
+        <v>1515</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>225</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>226</v>
@@ -4418,37 +4412,37 @@
         <v>2</v>
       </c>
       <c r="D11" s="7">
-        <v>1637</v>
+        <v>1468</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>227</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
       </c>
       <c r="I11" s="7">
-        <v>1388</v>
+        <v>1851</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>228</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
         <v>4</v>
       </c>
       <c r="N11" s="7">
-        <v>3025</v>
+        <v>3319</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>229</v>
@@ -4457,7 +4451,7 @@
         <v>230</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4469,46 +4463,46 @@
         <v>3</v>
       </c>
       <c r="D12" s="7">
-        <v>2412</v>
+        <v>2058</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
       </c>
       <c r="I12" s="7">
-        <v>1992</v>
+        <v>2776</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
         <v>6</v>
       </c>
       <c r="N12" s="7">
-        <v>4404</v>
+        <v>4834</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4519,46 +4513,46 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>1679</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>231</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>21</v>
+        <v>111</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>1655</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>12</v>
+        <v>231</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>112</v>
+        <v>19</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
       </c>
       <c r="N13" s="7">
-        <v>1679</v>
+        <v>1655</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>232</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>233</v>
@@ -4573,13 +4567,13 @@
         <v>2</v>
       </c>
       <c r="D14" s="7">
-        <v>2002</v>
+        <v>1258</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>234</v>
+        <v>19</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>21</v>
@@ -4588,22 +4582,22 @@
         <v>2</v>
       </c>
       <c r="I14" s="7">
-        <v>1281</v>
+        <v>2120</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>21</v>
+        <v>234</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>114</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
       </c>
       <c r="N14" s="7">
-        <v>3284</v>
+        <v>3378</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>235</v>
@@ -4612,7 +4606,7 @@
         <v>236</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4621,49 +4615,49 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>2</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1258</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="7">
         <v>4</v>
       </c>
-      <c r="D15" s="7">
-        <v>3681</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" s="7">
-        <v>2</v>
-      </c>
       <c r="I15" s="7">
-        <v>1281</v>
+        <v>3775</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M15" s="7">
         <v>6</v>
       </c>
       <c r="N15" s="7">
-        <v>4963</v>
+        <v>5033</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4674,49 +4668,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" s="7">
-        <v>3049</v>
+        <v>2243</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>237</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>4</v>
+      </c>
+      <c r="I16" s="7">
+        <v>3201</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="H16" s="7">
-        <v>3</v>
-      </c>
-      <c r="I16" s="7">
-        <v>2299</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
       </c>
       <c r="N16" s="7">
-        <v>5348</v>
+        <v>5443</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4725,49 +4719,49 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
+        <v>12</v>
+      </c>
+      <c r="D17" s="7">
+        <v>6972</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="7">
         <v>14</v>
       </c>
-      <c r="D17" s="7">
-        <v>8719</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="F17" s="7" t="s">
+      <c r="I17" s="7">
+        <v>9260</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="H17" s="7">
-        <v>12</v>
-      </c>
-      <c r="I17" s="7">
-        <v>6883</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="M17" s="7">
         <v>26</v>
       </c>
       <c r="N17" s="7">
-        <v>15602</v>
+        <v>16232</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4776,49 +4770,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>15</v>
+      </c>
+      <c r="D18" s="7">
+        <v>9215</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="7">
         <v>18</v>
       </c>
-      <c r="D18" s="7">
-        <v>11768</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H18" s="7">
-        <v>15</v>
-      </c>
       <c r="I18" s="7">
-        <v>9182</v>
+        <v>12461</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M18" s="7">
         <v>33</v>
       </c>
       <c r="N18" s="7">
-        <v>20950</v>
+        <v>21675</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
